--- a/Sim.xlsx
+++ b/Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimar\Desktop\SBMSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6D549-012E-4A0C-9F12-3F1164435207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A778B835-CA98-44DC-8499-C4514FC1581D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
-  <si>
-    <t>1zaKnAOVLgjX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>MbPjyW5ODPB1ko</t>
   </si>
@@ -52,21 +49,12 @@
     <t>NKd47x5lbS9S4o</t>
   </si>
   <si>
-    <t>antonov4spio@rambler.ru</t>
-  </si>
-  <si>
     <t>EOw70ZyPta9I8</t>
   </si>
   <si>
-    <t>osipova3zrym@rambler.ru</t>
-  </si>
-  <si>
     <t>3K2izVAjqIBjOD</t>
   </si>
   <si>
-    <t>prokhorova_56x59@rambler.ru</t>
-  </si>
-  <si>
     <t>ChTL3FV0KouBl</t>
   </si>
   <si>
@@ -254,16 +242,13 @@
   </si>
   <si>
     <t>V2o6g6adSEJZc2</t>
-  </si>
-  <si>
-    <t>vaza.kc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,13 +259,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,21 +278,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,500 +509,471 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>9186206488</v>
+      <c r="A1" s="1">
+        <v>9911610488</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>78</v>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>9911610487</v>
+        <v>9911599300</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>9911610540</v>
+        <v>9911599293</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>9911610489</v>
+        <v>9911599294</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>9911610488</v>
+        <v>9911599297</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>9911599300</v>
+        <v>9001442970</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>9911599293</v>
+        <v>9911599346</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9911599294</v>
+        <v>9911599347</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9911599297</v>
+        <v>9001437055</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9001442970</v>
+        <v>9001440416</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9911599346</v>
+        <v>9001437058</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9911599347</v>
+        <v>9911599313</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>9001437055</v>
+        <v>9911599312</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>9001440416</v>
+        <v>9911599311</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>9001437058</v>
+        <v>9911599310</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>9911599313</v>
+        <v>9911599307</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>9911599312</v>
+        <v>9911599321</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>9911599311</v>
+        <v>9911599314</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>9911599310</v>
+        <v>9911599316</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>9911599307</v>
+        <v>9911599319</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>9911599321</v>
+        <v>9911599306</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>9911599314</v>
+        <v>9911599305</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>9911599316</v>
+        <v>9911599303</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>9911599319</v>
+        <v>9911599302</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>9911599306</v>
+        <v>9911599315</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>9911599305</v>
+        <v>9911599320</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>9911599303</v>
+        <v>9911599341</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>9911599302</v>
+        <v>9911599343</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>9911599315</v>
+        <v>9911599342</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>9911599320</v>
+        <v>9911599301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>9911599341</v>
+        <v>9911599345</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>9911599343</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    <row r="34" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>9911599342</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="35" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="D35" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>9911599301</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>9911599345</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="D39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="D41" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="D43" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:4" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{C654C3C5-122D-4E1A-8031-6133AB5BD99C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>